--- a/IntrodDB/Lesson3/Task.xlsx
+++ b/IntrodDB/Lesson3/Task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmerzhoeva\Desktop\GB\IntrodDB\Lesson3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лема\Desktop\GeekBrains\GeekBrains\IntrodDB\Lesson3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3135C185-BA6C-440A-9062-058B55C228AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D268686F-D7EC-43B8-9DFF-924A35EB343D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Опишите базу данных для школьного кабинета, в рамках которой можно фиксировать, кто и в какое время сидел за той или иной партой.</t>
   </si>
@@ -37,6 +37,138 @@
   </si>
   <si>
     <t>— Создайте минимум 3 таблицы: «Кабинет», «Ученик» и сводная таблица, где отображаются парты и ученики.</t>
+  </si>
+  <si>
+    <t>Ученик</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
+    <t>Сводная таблица</t>
+  </si>
+  <si>
+    <t>Парта</t>
+  </si>
+  <si>
+    <t>параметр</t>
+  </si>
+  <si>
+    <t>ключ</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>комментарий</t>
+  </si>
+  <si>
+    <t>Имя ученика</t>
+  </si>
+  <si>
+    <t>Ряд</t>
+  </si>
+  <si>
+    <t>Вариант</t>
+  </si>
+  <si>
+    <t>Начало урока</t>
+  </si>
+  <si>
+    <t>Конец урока</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>уникальный идентификатор учченика</t>
+  </si>
+  <si>
+    <t>имя ученика</t>
+  </si>
+  <si>
+    <t>place_id</t>
+  </si>
+  <si>
+    <t>уникальный идентификатор места</t>
+  </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>ряд</t>
+  </si>
+  <si>
+    <t>вариант</t>
+  </si>
+  <si>
+    <t>парта</t>
+  </si>
+  <si>
+    <t>cabinet_id</t>
+  </si>
+  <si>
+    <t>уникальный идентификатор кабинета</t>
+  </si>
+  <si>
+    <t>Ученик на уроке</t>
+  </si>
+  <si>
+    <t>example_id</t>
+  </si>
+  <si>
+    <t>time_start</t>
+  </si>
+  <si>
+    <t>time_end</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>начало урока</t>
+  </si>
+  <si>
+    <t>конец урока</t>
+  </si>
+  <si>
+    <t>уникальный идентификатор ученика в данном моменте с привязкой к месту</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Артем</t>
+  </si>
+  <si>
+    <t>Вася</t>
+  </si>
+  <si>
+    <t>Аня</t>
   </si>
   <si>
     <r>
@@ -47,7 +179,9 @@
         <u/>
         <sz val="11"/>
         <color rgb="FF2C2D30"/>
-        <rFont val="Roboto"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>урока» и «конец</t>
     </r>
@@ -55,7 +189,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF2C2D30"/>
-        <rFont val="Roboto"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>урока» с типом данных </t>
     </r>
@@ -64,7 +200,9 @@
         <i/>
         <sz val="11"/>
         <color rgb="FF2C2D30"/>
-        <rFont val="Roboto"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>TimeStamp</t>
     </r>
@@ -72,64 +210,12 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF2C2D30"/>
-        <rFont val="Roboto"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>Ученик</t>
-  </si>
-  <si>
-    <t>Место ученика</t>
-  </si>
-  <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
-    <t>Сводная таблица</t>
-  </si>
-  <si>
-    <t>Парта</t>
-  </si>
-  <si>
-    <t>параметр</t>
-  </si>
-  <si>
-    <t>ключ</t>
-  </si>
-  <si>
-    <t>тип</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>name_id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>комментарий</t>
-  </si>
-  <si>
-    <t>Имя ученика</t>
-  </si>
-  <si>
-    <t>Ряд</t>
-  </si>
-  <si>
-    <t>Вариант</t>
-  </si>
-  <si>
-    <t>Начало урока</t>
-  </si>
-  <si>
-    <t>Конец урока</t>
   </si>
 </sst>
 </file>
@@ -148,35 +234,42 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF2C2D30"/>
-      <name val="Roboto"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF2C2D30"/>
-      <name val="Roboto"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF2C2D30"/>
-      <name val="Roboto"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF2C2D30"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2C2D30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +279,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,12 +358,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,13 +675,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="68.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -517,138 +702,437 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="H12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="H16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="H19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="16">
+        <v>112</v>
+      </c>
+      <c r="C26" s="17">
+        <v>3</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="16">
+        <v>112</v>
+      </c>
+      <c r="C27" s="17">
+        <v>2</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="16">
+        <v>112</v>
+      </c>
+      <c r="C28" s="17">
+        <v>2</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="16">
+        <v>110</v>
+      </c>
+      <c r="C29" s="17">
+        <v>2</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="16">
+        <v>109</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>2</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0.47569444444444442</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H16:K16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
